--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472893.0231497755</v>
+        <v>470544.9832603472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157207</v>
+        <v>5861169.424157198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673612</v>
+        <v>603248.4937673395</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12407387.85158441</v>
+        <v>12407387.85158442</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.78800045916975</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>82.89959706082733</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>164.1620927780567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.14216773598812</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>123.7964673646743</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>146.3818268434529</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.45572650406972</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>110.686079378997</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>299.6006821494769</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.6998289127561</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>178.925350145155</v>
       </c>
       <c r="W10" t="n">
-        <v>162.025533176465</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159928</v>
+        <v>59.00713057159953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1464,10 +1464,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608706</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02016206544148</v>
+        <v>17.0201620654416</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229311</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002445</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4512795045577</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3033399882065</v>
+        <v>55.13271770440564</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4154739963983</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229002233178</v>
       </c>
       <c r="V13" t="n">
-        <v>236.5437978012067</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520946</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159999</v>
+        <v>59.00713057159953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1701,10 +1701,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608706</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544148</v>
+        <v>17.0201620654416</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.228611916954</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.609141502697584</v>
+        <v>193.3033399882065</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4154739963983</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.5229983365908</v>
@@ -1831,7 +1831,7 @@
         <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>131.2305311929783</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159928</v>
+        <v>59.00713057159953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1938,10 +1938,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93315268608706</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544148</v>
+        <v>17.0201620654416</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T18" t="n">
         <v>191.6916106499414</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.2656317226178</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.228611916954</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4512795045577</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4154739963983</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2229002233178</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.1376433238278</v>
@@ -2068,7 +2068,7 @@
         <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>164.6433284243633</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159791</v>
+        <v>59.00713057159953</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
@@ -2175,10 +2175,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93315268608706</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02016206544148</v>
+        <v>17.0201620654416</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T21" t="n">
         <v>191.6916106499414</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>166.228611916954</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5581238002444</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.15878742693074</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4154739963983</v>
       </c>
       <c r="U22" t="n">
         <v>286.2229002233178</v>
@@ -2305,7 +2305,7 @@
         <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>48.8616742949548</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159928</v>
+        <v>59.00713057159953</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T23" t="n">
         <v>205.8971077829946</v>
@@ -2412,10 +2412,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93315268608706</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02016206544148</v>
+        <v>17.0201620654416</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T24" t="n">
         <v>191.6916106499414</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.5645414129918</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986277</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3033399882065</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.4154739963983</v>
@@ -2542,7 +2542,7 @@
         <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>206.8678814011954</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>71.9815321008949</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>148.5874584231005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>157.9776657292858</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.57026134932991</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.0170377497653</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>68.59371373186929</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655188142</v>
+        <v>132.9117655188034</v>
       </c>
       <c r="C37" t="n">
-        <v>120.3266064355047</v>
+        <v>120.3266064354939</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550893</v>
+        <v>101.6952583550784</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798344608</v>
+        <v>99.51374798343525</v>
       </c>
       <c r="F37" t="n">
-        <v>97.19145000385208</v>
+        <v>98.50083335979733</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935959051</v>
+        <v>119.1055935958943</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025119769</v>
+        <v>97.83480025118686</v>
       </c>
       <c r="I37" t="n">
-        <v>49.432205746715</v>
+        <v>48.12282239100603</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800692424</v>
+        <v>42.0119380069134</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683188</v>
+        <v>142.848810668308</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130461</v>
+        <v>172.6287346130353</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424898</v>
+        <v>239.291623542479</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286607049</v>
+        <v>205.2174286606941</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734679</v>
+        <v>239.6027836734571</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407259141</v>
+        <v>178.7894407259032</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889717</v>
+        <v>171.6644386889609</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124616</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3964,7 +3964,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335036</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.137349737077</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.174832796665</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.174832796665</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.737189801198</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C4" t="n">
-        <v>116.9148271986727</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>116.9148271986727</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>116.9148271986727</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>116.9148271986727</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>116.9148271986727</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>353.3247993678817</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>346.3792986186782</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>332.4558945572691</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2373.111172177389</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2373.111172177389</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2373.111172177389</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.111172177389</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5547855502702</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
         <v>99.5995062532301</v>
@@ -4723,52 +4723,52 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233622</v>
+        <v>1338.985622382834</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353781</v>
+        <v>1338.985622382834</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>927.9997175932263</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>510.0359094914131</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1940.240293816184</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.240293816184</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.100961840373</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524923</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524923</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524923</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524923</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W10" t="n">
-        <v>564.466829482732</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X10" t="n">
-        <v>564.466829482732</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.466829482732</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2397.674311129768</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D11" t="n">
         <v>1670.446095582606</v>
@@ -5027,40 +5027,40 @@
         <v>1284.657842984362</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947541</v>
+        <v>873.6719381947546</v>
       </c>
       <c r="G11" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453024</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854163</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I11" t="n">
         <v>96.27903999188166</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5747702342512</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.762760227075</v>
+        <v>1487.438622397155</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.719331430416</v>
+        <v>2387.395193600495</v>
       </c>
       <c r="N11" t="n">
-        <v>3192.606143285642</v>
+        <v>2854.308550287856</v>
       </c>
       <c r="O11" t="n">
-        <v>3658.858511106399</v>
+        <v>3658.858511106401</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.84890583629</v>
+        <v>4307.848905836292</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.99190464817</v>
+        <v>4717.991904648171</v>
       </c>
       <c r="R11" t="n">
         <v>4813.951999594083</v>
@@ -5103,40 +5103,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3328932762539</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H12" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I12" t="n">
         <v>96.27903999188166</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1604166971858</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K12" t="n">
-        <v>534.6729529971292</v>
+        <v>628.7436071410008</v>
       </c>
       <c r="L12" t="n">
-        <v>849.372551970089</v>
+        <v>943.4432061139598</v>
       </c>
       <c r="M12" t="n">
-        <v>1235.969008722659</v>
+        <v>1330.039662866528</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.206168247556</v>
+        <v>1741.276822391425</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.188032313727</v>
+        <v>2095.258686457596</v>
       </c>
       <c r="P12" t="n">
-        <v>2265.956619575951</v>
+        <v>2360.027273719818</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.004726840545</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>813.6210443261218</v>
+        <v>560.1436793068344</v>
       </c>
       <c r="C13" t="n">
-        <v>644.684861398215</v>
+        <v>391.2074963789277</v>
       </c>
       <c r="D13" t="n">
-        <v>494.5682219858795</v>
+        <v>391.2074963789277</v>
       </c>
       <c r="E13" t="n">
-        <v>346.6551284034865</v>
+        <v>391.2074963789277</v>
       </c>
       <c r="F13" t="n">
-        <v>199.7651809055764</v>
+        <v>244.3175488810175</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7651809055764</v>
+        <v>244.3175488810175</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7651809055764</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I13" t="n">
         <v>96.27903999188166</v>
       </c>
       <c r="J13" t="n">
-        <v>127.2068360096033</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238321</v>
+        <v>307.8675422238316</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768332</v>
+        <v>594.5774814768323</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138216</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.946266754872</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214386</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862619</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576727</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="R13" t="n">
-        <v>1758.019821576727</v>
+        <v>1758.019821576724</v>
       </c>
       <c r="S13" t="n">
-        <v>1562.76392259874</v>
+        <v>1702.33020773389</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.76392259874</v>
+        <v>1479.688314808235</v>
       </c>
       <c r="U13" t="n">
-        <v>1562.76392259874</v>
+        <v>1190.574274178621</v>
       </c>
       <c r="V13" t="n">
-        <v>1323.830793506612</v>
+        <v>1190.574274178621</v>
       </c>
       <c r="W13" t="n">
-        <v>1034.413623469652</v>
+        <v>1190.574274178621</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.413623469652</v>
+        <v>962.5847232806038</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.6210443261218</v>
+        <v>741.7921441370739</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C14" t="n">
         <v>2028.711794189357</v>
@@ -5267,61 +5267,61 @@
         <v>873.6719381947551</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1428052453024</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J14" t="n">
-        <v>256.6243923488408</v>
+        <v>256.6243923488487</v>
       </c>
       <c r="K14" t="n">
-        <v>854.411986573608</v>
+        <v>854.411986573615</v>
       </c>
       <c r="L14" t="n">
-        <v>1648.296984746611</v>
+        <v>1648.296984746617</v>
       </c>
       <c r="M14" t="n">
-        <v>2548.253555949952</v>
+        <v>2548.253555949957</v>
       </c>
       <c r="N14" t="n">
-        <v>3448.140367805178</v>
+        <v>3448.140367805182</v>
       </c>
       <c r="O14" t="n">
-        <v>4252.690328623725</v>
+        <v>4252.690328623728</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.100002263849</v>
+        <v>4583.100002263851</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.051160322423</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3328932762539</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H15" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1604166971858</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K15" t="n">
-        <v>534.6729529971292</v>
+        <v>742.6494678556245</v>
       </c>
       <c r="L15" t="n">
-        <v>849.372551970089</v>
+        <v>1057.349066828584</v>
       </c>
       <c r="M15" t="n">
-        <v>1235.969008722659</v>
+        <v>1443.945523581152</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.206168247556</v>
+        <v>1855.182683106049</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.188032313727</v>
+        <v>2209.164547172219</v>
       </c>
       <c r="P15" t="n">
-        <v>2265.956619575951</v>
+        <v>2473.933134434442</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.004726840545</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0128592227027</v>
+        <v>731.152644719521</v>
       </c>
       <c r="C16" t="n">
-        <v>411.0766762947959</v>
+        <v>562.2164617916143</v>
       </c>
       <c r="D16" t="n">
-        <v>411.0766762947959</v>
+        <v>412.0998223792787</v>
       </c>
       <c r="E16" t="n">
-        <v>411.0766762947959</v>
+        <v>264.1867287968857</v>
       </c>
       <c r="F16" t="n">
         <v>264.1867287968857</v>
       </c>
       <c r="G16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096034</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238324</v>
+        <v>307.8675422238316</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768337</v>
+        <v>594.5774814768323</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138224</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.946266754873</v>
+        <v>1217.94626675499</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214391</v>
+        <v>1488.897144214503</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862624</v>
+        <v>1697.221745862736</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576732</v>
+        <v>1758.019821576843</v>
       </c>
       <c r="R16" t="n">
-        <v>1758.019821576732</v>
+        <v>1758.019821576843</v>
       </c>
       <c r="S16" t="n">
-        <v>1756.394426119461</v>
+        <v>1562.763922598857</v>
       </c>
       <c r="T16" t="n">
-        <v>1533.752533193806</v>
+        <v>1562.763922598857</v>
       </c>
       <c r="U16" t="n">
-        <v>1533.752533193806</v>
+        <v>1562.763922598857</v>
       </c>
       <c r="V16" t="n">
-        <v>1279.06804498792</v>
+        <v>1562.763922598857</v>
       </c>
       <c r="W16" t="n">
-        <v>989.6508749509592</v>
+        <v>1273.346752561897</v>
       </c>
       <c r="X16" t="n">
-        <v>761.6613240529422</v>
+        <v>1045.35720166388</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.6613240529422</v>
+        <v>912.8011095497606</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947537</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1428052453011</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854163</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1691212138981</v>
+        <v>247.1691212138977</v>
       </c>
       <c r="K17" t="n">
-        <v>844.9567154386652</v>
+        <v>844.9567154386639</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.841713611668</v>
+        <v>1638.841713611665</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.798284815009</v>
+        <v>2538.798284815006</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.685096670235</v>
+        <v>3438.685096670231</v>
       </c>
       <c r="O17" t="n">
-        <v>4243.235057488781</v>
+        <v>4243.235057488776</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.644731128906</v>
+        <v>4573.644731128899</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.051160322422</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.951999594082</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F18" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G18" t="n">
-        <v>206.3328932762539</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H18" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>292.1604166971858</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K18" t="n">
-        <v>534.6729529971292</v>
+        <v>491.7531474855527</v>
       </c>
       <c r="L18" t="n">
-        <v>849.372551970089</v>
+        <v>806.4527464585117</v>
       </c>
       <c r="M18" t="n">
-        <v>1235.969008722659</v>
+        <v>1193.049203211081</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.206168247556</v>
+        <v>1604.286362735977</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.188032313727</v>
+        <v>1958.268226802148</v>
       </c>
       <c r="P18" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.004726840545</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>476.0219926627196</v>
+        <v>415.331862332124</v>
       </c>
       <c r="C19" t="n">
-        <v>476.0219926627196</v>
+        <v>246.3956794042172</v>
       </c>
       <c r="D19" t="n">
-        <v>476.0219926627196</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E19" t="n">
-        <v>476.0219926627196</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F19" t="n">
-        <v>367.6728697105804</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7651809055763</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H19" t="n">
-        <v>199.7651809055763</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096034</v>
+        <v>127.2068360096033</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238324</v>
+        <v>307.8675422238318</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768337</v>
+        <v>594.5774814768328</v>
       </c>
       <c r="M19" t="n">
-        <v>907.262035813822</v>
+        <v>907.2620358138203</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.946266754873</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214387</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.22174586262</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576728</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576728</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S19" t="n">
-        <v>1758.019821576728</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="T19" t="n">
-        <v>1758.019821576728</v>
+        <v>1535.37792865107</v>
       </c>
       <c r="U19" t="n">
-        <v>1468.905780947114</v>
+        <v>1535.37792865107</v>
       </c>
       <c r="V19" t="n">
-        <v>1214.221292741227</v>
+        <v>1280.693440445183</v>
       </c>
       <c r="W19" t="n">
-        <v>924.8041227042668</v>
+        <v>991.2762704082227</v>
       </c>
       <c r="X19" t="n">
-        <v>696.8145718062495</v>
+        <v>763.2867195102054</v>
       </c>
       <c r="Y19" t="n">
-        <v>476.0219926627196</v>
+        <v>596.9803271623636</v>
       </c>
     </row>
     <row r="20">
@@ -5732,49 +5732,49 @@
         <v>2028.711794189356</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.446095582605</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.657842984361</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947535</v>
+        <v>873.6719381947541</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453007</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854149</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9476297045257</v>
+        <v>414.5747702342507</v>
       </c>
       <c r="K20" t="n">
-        <v>535.8312654838397</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L20" t="n">
-        <v>1329.716263656842</v>
+        <v>1806.247362632019</v>
       </c>
       <c r="M20" t="n">
-        <v>2229.672834860184</v>
+        <v>2261.185535677455</v>
       </c>
       <c r="N20" t="n">
-        <v>3129.55964671541</v>
+        <v>3161.07234753268</v>
       </c>
       <c r="O20" t="n">
-        <v>3934.109607533956</v>
+        <v>3965.622308351225</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.100002263848</v>
+        <v>4583.100002263851</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.051160322422</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.951999594082</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
         <v>4693.254671942665</v>
@@ -5814,43 +5814,43 @@
         <v>648.712353258878</v>
       </c>
       <c r="E21" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F21" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G21" t="n">
-        <v>206.3328932762539</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H21" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971858</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K21" t="n">
-        <v>504.6170168029242</v>
+        <v>534.672952997134</v>
       </c>
       <c r="L21" t="n">
-        <v>819.316615775884</v>
+        <v>849.372551970093</v>
       </c>
       <c r="M21" t="n">
-        <v>1205.913072528454</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N21" t="n">
-        <v>1617.150232053351</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O21" t="n">
-        <v>1971.132096119522</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P21" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.948790646339</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R21" t="n">
         <v>2601.004726840545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2252376860214</v>
+        <v>243.1689874897918</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2252376860214</v>
+        <v>243.1689874897918</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2252376860214</v>
+        <v>243.1689874897918</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2252376860214</v>
+        <v>243.1689874897918</v>
       </c>
       <c r="F22" t="n">
-        <v>412.2252376860214</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G22" t="n">
-        <v>244.3175488810174</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2068360096034</v>
+        <v>127.2068360096033</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238324</v>
+        <v>307.8675422238319</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768337</v>
+        <v>594.5774814768329</v>
       </c>
       <c r="M22" t="n">
-        <v>907.262035813822</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.946266754873</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214386</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862619</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576727</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R22" t="n">
-        <v>1694.22306660003</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S22" t="n">
-        <v>1694.22306660003</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="T22" t="n">
-        <v>1694.22306660003</v>
+        <v>1535.37792865107</v>
       </c>
       <c r="U22" t="n">
-        <v>1405.109025970416</v>
+        <v>1246.263888021456</v>
       </c>
       <c r="V22" t="n">
-        <v>1150.424537764529</v>
+        <v>991.5793998155693</v>
       </c>
       <c r="W22" t="n">
-        <v>861.0073677275684</v>
+        <v>702.1622297786089</v>
       </c>
       <c r="X22" t="n">
-        <v>633.0178168295513</v>
+        <v>474.1726788805917</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2252376860214</v>
+        <v>424.8174523200314</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2397.674311129769</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D23" t="n">
         <v>1670.446095582607</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947548</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1428052453021</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8822021854162</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1691212138981</v>
+        <v>247.1691212138977</v>
       </c>
       <c r="K23" t="n">
-        <v>844.9567154386652</v>
+        <v>579.160890146057</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.841713611668</v>
+        <v>1373.045888319059</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.798284815009</v>
+        <v>2273.002459522399</v>
       </c>
       <c r="N23" t="n">
-        <v>3438.685096670235</v>
+        <v>3172.889271377624</v>
       </c>
       <c r="O23" t="n">
-        <v>4243.235057488781</v>
+        <v>3977.43923219617</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.644731128906</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.051160322423</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V23" t="n">
         <v>3900.647896700897</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y23" t="n">
         <v>2784.274151193891</v>
@@ -6051,43 +6051,43 @@
         <v>648.712353258878</v>
       </c>
       <c r="E24" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F24" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G24" t="n">
-        <v>206.3328932762539</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H24" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1604166971858</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K24" t="n">
-        <v>504.6170168029242</v>
+        <v>534.672952997134</v>
       </c>
       <c r="L24" t="n">
-        <v>819.316615775884</v>
+        <v>849.372551970093</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.913072528454</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N24" t="n">
-        <v>1617.150232053351</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O24" t="n">
-        <v>1971.132096119522</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P24" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2570.948790646339</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R24" t="n">
         <v>2601.004726840545</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.2152229197884</v>
+        <v>265.2152229197882</v>
       </c>
       <c r="C25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27903999188163</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096034</v>
+        <v>127.2068360096033</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238325</v>
+        <v>307.8675422238319</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768338</v>
+        <v>594.5774814768329</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138224</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.946266754873</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214387</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.22174586262</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576728</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576728</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598741</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.122029673087</v>
+        <v>1535.37792865107</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.007989043473</v>
+        <v>1246.263888021456</v>
       </c>
       <c r="V25" t="n">
-        <v>796.3235008375859</v>
+        <v>991.5793998155693</v>
       </c>
       <c r="W25" t="n">
-        <v>506.9063308006255</v>
+        <v>702.1622297786089</v>
       </c>
       <c r="X25" t="n">
-        <v>278.9167799026084</v>
+        <v>474.1726788805917</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.9167799026084</v>
+        <v>265.2152229197882</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.4007383484569</v>
+        <v>782.1255161526727</v>
       </c>
       <c r="C28" t="n">
-        <v>854.4007383484569</v>
+        <v>613.1893332247658</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>463.0726938124301</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>315.159600230037</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>168.2696527321266</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1325.466373215657</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>1036.049203178697</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.049203178697</v>
+        <v>1184.566560126443</v>
       </c>
       <c r="Y28" t="n">
-        <v>1036.049203178697</v>
+        <v>963.7739809829125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6461,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.3805104860113</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3805104860113</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736755</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736755</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,22 +6619,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1877.989666761946</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1877.989666761946</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1656.223051331473</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1367.120184457116</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1112.435696251229</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W31" t="n">
-        <v>823.0185262142684</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X31" t="n">
-        <v>595.028975316251</v>
+        <v>868.3175368797237</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.028975316251</v>
+        <v>868.3175368797237</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>827.5554641779659</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="C34" t="n">
-        <v>658.619281250059</v>
+        <v>312.7607075579282</v>
       </c>
       <c r="D34" t="n">
-        <v>508.5026418377232</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,13 +6862,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.103611420813</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838524</v>
       </c>
       <c r="X34" t="n">
-        <v>1190.789495593986</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.9969164504561</v>
+        <v>481.6968904858352</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6944,37 +6944,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.5808954299196</v>
+        <v>787.5808954301036</v>
       </c>
       <c r="C37" t="n">
-        <v>666.0388687273895</v>
+        <v>666.0388687275845</v>
       </c>
       <c r="D37" t="n">
-        <v>563.3163855404307</v>
+        <v>563.3163855406369</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7974481834144</v>
+        <v>462.7974481836313</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663613417</v>
+        <v>363.3016569111087</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614375</v>
+        <v>242.9929765112155</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046722</v>
+        <v>144.1699459544611</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118219</v>
+        <v>187.1346794118326</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748771901</v>
+        <v>437.5728748772116</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858421783</v>
+        <v>800.5836858422101</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958219</v>
+        <v>1191.191743958261</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180576</v>
+        <v>1579.051133180629</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617481</v>
+        <v>1924.831744617545</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567632</v>
+        <v>2203.890257567707</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236639</v>
+        <v>2327.951566236724</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219544</v>
+        <v>2285.51526521964</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271747</v>
+        <v>2141.223537271854</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.85107806665</v>
+        <v>1966.851078066768</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.14236741767</v>
+        <v>1725.142367417799</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.85203543716</v>
+        <v>1517.8520354373</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625576</v>
+        <v>1275.829021625727</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.233626952936</v>
+        <v>1095.233626953098</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040347825</v>
+        <v>921.8352040349555</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7254,7 +7254,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.457836193253</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7415,22 +7415,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7552,16 +7552,16 @@
         <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819764</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,31 +7570,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901879</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.32299686015</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719036</v>
       </c>
       <c r="Q43" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,13 +7603,13 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.05694589913</v>
       </c>
       <c r="Y43" t="n">
         <v>922.7139997036716</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>685.1208104866384</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1549.639626139993</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.189928969822</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N44" t="n">
-        <v>3507.942201196468</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>95.63218401018389</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.08544086093713</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>43.35333890058141</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>115.0564249642667</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202224</v>
+        <v>15.16213830202244</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.550778924184556</v>
+        <v>9.55077892419294</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.35333890058141</v>
+        <v>253.4306266364362</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202224</v>
+        <v>15.16213830202244</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.550778924184101</v>
+        <v>9.550778924193054</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>43.35333890058141</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.35333890058712</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.16213830202224</v>
+        <v>15.16213830202244</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.89748332386625</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>289.9676972449521</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>12.99380739128341</v>
+        <v>43.35333890058715</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202244</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>55.66478096247084</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.550778924185011</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>12.99380739128341</v>
+        <v>43.35333890058715</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202244</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>288.0478149561034</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.228611916954</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002444</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4512795045578</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824673</v>
+        <v>98.05094259824688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.1706222838009</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739963983</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229002233178</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>15.59384552262117</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5581238002444</v>
+        <v>146.5581238002445</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4512795045577</v>
+        <v>102.4512795045578</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824673</v>
+        <v>98.05094259824688</v>
       </c>
       <c r="S16" t="n">
-        <v>191.6941984855089</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4154739963983</v>
       </c>
       <c r="U16" t="n">
         <v>286.2229002233178</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>87.35412215911636</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>38.15541630031328</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.228611916954</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002444</v>
+        <v>146.5581238002445</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4512795045578</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824673</v>
+        <v>98.05094259824688</v>
       </c>
       <c r="S19" t="n">
         <v>193.3033399882065</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4154739963983</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229002233178</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>53.94132492773136</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986277</v>
@@ -24136,16 +24136,16 @@
         <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.228611916954</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5581238002445</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4512795045577</v>
+        <v>102.4512795045578</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.89215517131611</v>
+        <v>98.05094259824688</v>
       </c>
       <c r="S22" t="n">
         <v>193.3033399882065</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4154739963983</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.7229790571398</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.2674387689453</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.228611916954</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5581238002444</v>
+        <v>146.5581238002445</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4512795045577</v>
+        <v>102.4512795045578</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.05094259824673</v>
+        <v>98.05094259824688</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3033399882065</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>11.71677195089918</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.04427615813333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>103.5501849007275</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>21.85431445265149</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.36189132071742</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.81494243217199</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>80.02175928634307</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.309383355956072</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.309383355698128</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1050874.060950652</v>
+        <v>1050874.060950655</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1084669.026452373</v>
+        <v>1084669.026452381</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26317,43 @@
         <v>369468.7964389273</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>355011.7918757366</v>
+        <v>355011.791875737</v>
       </c>
       <c r="F2" t="n">
-        <v>355011.7918757367</v>
+        <v>355011.7918757382</v>
       </c>
       <c r="G2" t="n">
-        <v>355011.7918757365</v>
+        <v>355011.791875737</v>
       </c>
       <c r="H2" t="n">
-        <v>355011.7918757366</v>
+        <v>355011.7918757369</v>
       </c>
       <c r="I2" t="n">
-        <v>355011.7918757365</v>
+        <v>355011.7918757368</v>
       </c>
       <c r="J2" t="n">
+        <v>357373.608198285</v>
+      </c>
+      <c r="K2" t="n">
         <v>357373.6081982851</v>
       </c>
-      <c r="K2" t="n">
-        <v>357373.6081982848</v>
-      </c>
       <c r="L2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="M2" t="n">
-        <v>369454.6550986831</v>
+        <v>369454.655098686</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.796438928</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389279</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282974</v>
+        <v>639703.3804282959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527441</v>
+        <v>257274.6877527452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376832</v>
+        <v>169415.1097376918</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756437557954</v>
+        <v>43.93756436692229</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488296</v>
+        <v>26074.75651488307</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.7565148847</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488297</v>
+        <v>26074.75651488309</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.7565148831</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.75651488299</v>
+        <v>26074.75651488309</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699488</v>
+        <v>33587.58123699848</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940048</v>
+        <v>94477.49060940045</v>
       </c>
       <c r="F5" t="n">
-        <v>94477.49060940048</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="G5" t="n">
         <v>94477.49060940047</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802278</v>
+        <v>100328.0537802287</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486706.8476961544</v>
+        <v>-486706.8476961545</v>
       </c>
       <c r="C6" t="n">
         <v>103261.0315183898</v>
       </c>
       <c r="D6" t="n">
-        <v>103261.0315183899</v>
+        <v>103261.0315183901</v>
       </c>
       <c r="E6" t="n">
-        <v>-405243.8356768443</v>
+        <v>-405324.1523688601</v>
       </c>
       <c r="F6" t="n">
-        <v>234459.5447514532</v>
+        <v>234379.2280594353</v>
       </c>
       <c r="G6" t="n">
-        <v>234459.5447514531</v>
+        <v>234379.2280594357</v>
       </c>
       <c r="H6" t="n">
-        <v>234459.5447514531</v>
+        <v>234379.2280594356</v>
       </c>
       <c r="I6" t="n">
-        <v>234459.5447514531</v>
+        <v>234379.2280594356</v>
       </c>
       <c r="J6" t="n">
-        <v>-14433.09012736262</v>
+        <v>-14500.28561758958</v>
       </c>
       <c r="K6" t="n">
-        <v>242841.5976253812</v>
+        <v>242774.4021351557</v>
       </c>
       <c r="L6" t="n">
-        <v>242841.5976253815</v>
+        <v>242774.4021351555</v>
       </c>
       <c r="M6" t="n">
-        <v>66123.91034377733</v>
+        <v>66123.83178076569</v>
       </c>
       <c r="N6" t="n">
-        <v>235486.5345630413</v>
+        <v>235486.5345630498</v>
       </c>
       <c r="O6" t="n">
-        <v>235530.4721274167</v>
+        <v>235530.472127417</v>
       </c>
       <c r="P6" t="n">
-        <v>235530.4721274166</v>
+        <v>235530.4721274168</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252484</v>
+        <v>977.3128539252468</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252484</v>
+        <v>977.3128539252468</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252484</v>
+        <v>977.3128539252468</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252484</v>
+        <v>977.3128539252468</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252484</v>
+        <v>977.3128539252468</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1203.487999898521</v>
@@ -26802,13 +26802,13 @@
         <v>1203.487999898521</v>
       </c>
       <c r="G4" t="n">
-        <v>1203.48799989852</v>
+        <v>1203.487999898521</v>
       </c>
       <c r="H4" t="n">
-        <v>1203.48799989852</v>
+        <v>1203.487999898521</v>
       </c>
       <c r="I4" t="n">
-        <v>1203.48799989852</v>
+        <v>1203.487999898521</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195546947443</v>
+        <v>0.05492195545865286</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.569189708162</v>
+        <v>599.5691897081601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680499</v>
+        <v>112.4638466680515</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439652</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609654</v>
+        <v>665.3122034609648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439652</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439652</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>379.1423696130921</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>286.8315036176417</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.084728320571145</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>139.028721105807</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>200.1263053996828</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>70.06649351420486</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>99.15974651414264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>115.0235760100401</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>24.32209061488021</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.54113980465695</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>73.21229317867301</v>
       </c>
       <c r="W10" t="n">
-        <v>124.497465160126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.176481631177012e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28506,28 +28506,28 @@
         <v>1.691115641142069e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>1.213038558489643e-10</v>
       </c>
       <c r="O16" t="n">
-        <v>4.494787851977066e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.691115641142069e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>1.691115641142069e-13</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466312309</v>
+        <v>46.92021466313393</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176875</v>
+        <v>3.928895895176869</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648018</v>
+        <v>40.23680508648012</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988066</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832686</v>
+        <v>333.4601279832681</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7702912261058</v>
+        <v>499.770291226105</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781253</v>
+        <v>620.0092389781242</v>
       </c>
       <c r="M11" t="n">
-        <v>689.879741353977</v>
+        <v>689.8797413539759</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161483</v>
+        <v>701.0427168161472</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584832</v>
+        <v>661.9747582584821</v>
       </c>
       <c r="P11" t="n">
-        <v>564.980140846304</v>
+        <v>564.9801408463031</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.276556600282</v>
+        <v>424.2765566002814</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754046</v>
+        <v>246.7985067754042</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134313</v>
+        <v>89.52971521134299</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113678</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U11" t="n">
-        <v>0.31431167161415</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197704</v>
+        <v>2.102144629197701</v>
       </c>
       <c r="H12" t="n">
-        <v>20.30229155040941</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597359</v>
+        <v>72.37647078597348</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962621</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525083</v>
+        <v>339.4502579525077</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808436</v>
+        <v>456.4327625808429</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892603</v>
+        <v>532.6355053892595</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7327823105029</v>
+        <v>546.732782310502</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951222</v>
+        <v>500.1536828951213</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509195</v>
+        <v>401.4174248509189</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305701</v>
+        <v>268.3369179305697</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408891</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880216</v>
+        <v>8.473118044880202</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630069</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504546</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719498</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270037</v>
+        <v>52.99919542270028</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143714</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7550536584372</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851396</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2591072169353</v>
+        <v>276.2591072169349</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167822</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955699</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P13" t="n">
-        <v>213.150331288877</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427125</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892258</v>
+        <v>79.24244877892244</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876558</v>
+        <v>30.71325804876553</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883059</v>
+        <v>7.530115431883047</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09612913317297536</v>
+        <v>0.0961291331729752</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176875</v>
+        <v>3.928895895176869</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648018</v>
+        <v>40.23680508648012</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988066</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832686</v>
+        <v>333.4601279832681</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261058</v>
+        <v>499.770291226105</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781253</v>
+        <v>620.0092389781242</v>
       </c>
       <c r="M14" t="n">
-        <v>689.879741353977</v>
+        <v>689.8797413539759</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161483</v>
+        <v>701.0427168161472</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584832</v>
+        <v>661.9747582584821</v>
       </c>
       <c r="P14" t="n">
-        <v>564.980140846304</v>
+        <v>564.9801408463031</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.276556600282</v>
+        <v>424.2765566002814</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754046</v>
+        <v>246.7985067754042</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134313</v>
+        <v>89.52971521134299</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113678</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U14" t="n">
-        <v>0.31431167161415</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197704</v>
+        <v>2.102144629197701</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040941</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597359</v>
+        <v>72.37647078597348</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962621</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525083</v>
+        <v>339.4502579525077</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808436</v>
+        <v>456.4327625808429</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892603</v>
+        <v>532.6355053892595</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105029</v>
+        <v>546.732782310502</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951222</v>
+        <v>500.1536828951213</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509195</v>
+        <v>401.4174248509189</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305701</v>
+        <v>268.3369179305697</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408891</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880216</v>
+        <v>8.473118044880202</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630069</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504546</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719498</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270037</v>
+        <v>52.99919542270028</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143714</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584372</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851396</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169353</v>
+        <v>276.2591072169349</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167822</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955699</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P16" t="n">
-        <v>213.150331288877</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427125</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892258</v>
+        <v>79.24244877892244</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876558</v>
+        <v>30.71325804876553</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883059</v>
+        <v>7.530115431883047</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297536</v>
+        <v>0.0961291331729752</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176875</v>
+        <v>3.928895895176869</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648018</v>
+        <v>40.23680508648012</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4687589988066</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832686</v>
+        <v>333.4601279832681</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261058</v>
+        <v>499.770291226105</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781253</v>
+        <v>620.0092389781242</v>
       </c>
       <c r="M17" t="n">
-        <v>689.879741353977</v>
+        <v>689.8797413539759</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161483</v>
+        <v>701.0427168161472</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584832</v>
+        <v>661.9747582584821</v>
       </c>
       <c r="P17" t="n">
-        <v>564.980140846304</v>
+        <v>564.9801408463031</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.276556600282</v>
+        <v>424.2765566002814</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754046</v>
+        <v>246.7985067754042</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134313</v>
+        <v>89.52971521134299</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113678</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U17" t="n">
-        <v>0.31431167161415</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197704</v>
+        <v>2.102144629197701</v>
       </c>
       <c r="H18" t="n">
-        <v>20.30229155040941</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597359</v>
+        <v>72.37647078597348</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962621</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525083</v>
+        <v>339.4502579525077</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808436</v>
+        <v>456.4327625808429</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892603</v>
+        <v>532.6355053892595</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105029</v>
+        <v>546.732782310502</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951222</v>
+        <v>500.1536828951213</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509195</v>
+        <v>401.4174248509189</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305701</v>
+        <v>268.3369179305697</v>
       </c>
       <c r="R18" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408891</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880216</v>
+        <v>8.473118044880202</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630069</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504546</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719498</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270037</v>
+        <v>52.99919542270028</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143714</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7550536584372</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851396</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2591072169353</v>
+        <v>276.2591072169349</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167822</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955699</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P19" t="n">
-        <v>213.150331288877</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427125</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892258</v>
+        <v>79.24244877892244</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876558</v>
+        <v>30.71325804876553</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883059</v>
+        <v>7.530115431883047</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297536</v>
+        <v>0.0961291331729752</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176875</v>
+        <v>3.928895895176869</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648018</v>
+        <v>40.23680508648012</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4687589988066</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832686</v>
+        <v>333.4601279832681</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7702912261058</v>
+        <v>499.770291226105</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781253</v>
+        <v>620.0092389781242</v>
       </c>
       <c r="M20" t="n">
-        <v>689.879741353977</v>
+        <v>689.8797413539759</v>
       </c>
       <c r="N20" t="n">
-        <v>701.0427168161483</v>
+        <v>701.0427168161472</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584832</v>
+        <v>661.9747582584821</v>
       </c>
       <c r="P20" t="n">
-        <v>564.980140846304</v>
+        <v>564.9801408463031</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.276556600282</v>
+        <v>424.2765566002814</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754046</v>
+        <v>246.7985067754042</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134313</v>
+        <v>89.52971521134299</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113678</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U20" t="n">
-        <v>0.31431167161415</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197704</v>
+        <v>2.102144629197701</v>
       </c>
       <c r="H21" t="n">
-        <v>20.30229155040941</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597359</v>
+        <v>72.37647078597348</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962621</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525083</v>
+        <v>339.4502579525077</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808436</v>
+        <v>456.4327625808429</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892603</v>
+        <v>532.6355053892595</v>
       </c>
       <c r="N21" t="n">
-        <v>546.7327823105029</v>
+        <v>546.732782310502</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951222</v>
+        <v>500.1536828951213</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509195</v>
+        <v>401.4174248509189</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305701</v>
+        <v>268.3369179305697</v>
       </c>
       <c r="R21" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408891</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880216</v>
+        <v>8.473118044880202</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630069</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504546</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719498</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99919542270037</v>
+        <v>52.99919542270028</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5993781143714</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7550536584372</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851396</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2591072169353</v>
+        <v>276.2591072169349</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167822</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955699</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P22" t="n">
-        <v>213.150331288877</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427125</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892258</v>
+        <v>79.24244877892244</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876558</v>
+        <v>30.71325804876553</v>
       </c>
       <c r="T22" t="n">
-        <v>7.530115431883059</v>
+        <v>7.530115431883047</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297536</v>
+        <v>0.0961291331729752</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176875</v>
+        <v>3.928895895176869</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648018</v>
+        <v>40.23680508648012</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4687589988066</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4601279832686</v>
+        <v>333.4601279832681</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7702912261058</v>
+        <v>499.770291226105</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781253</v>
+        <v>620.0092389781242</v>
       </c>
       <c r="M23" t="n">
-        <v>689.879741353977</v>
+        <v>689.8797413539759</v>
       </c>
       <c r="N23" t="n">
-        <v>701.0427168161483</v>
+        <v>701.0427168161472</v>
       </c>
       <c r="O23" t="n">
-        <v>661.9747582584832</v>
+        <v>661.9747582584821</v>
       </c>
       <c r="P23" t="n">
-        <v>564.980140846304</v>
+        <v>564.9801408463031</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.276556600282</v>
+        <v>424.2765566002814</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754046</v>
+        <v>246.7985067754042</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134313</v>
+        <v>89.52971521134299</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113678</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U23" t="n">
-        <v>0.31431167161415</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.102144629197704</v>
+        <v>2.102144629197701</v>
       </c>
       <c r="H24" t="n">
-        <v>20.30229155040941</v>
+        <v>20.30229155040938</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597359</v>
+        <v>72.37647078597348</v>
       </c>
       <c r="J24" t="n">
-        <v>198.6065677962621</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4502579525083</v>
+        <v>339.4502579525077</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808436</v>
+        <v>456.4327625808429</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892603</v>
+        <v>532.6355053892595</v>
       </c>
       <c r="N24" t="n">
-        <v>546.7327823105029</v>
+        <v>546.732782310502</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951222</v>
+        <v>500.1536828951213</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509195</v>
+        <v>401.4174248509189</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3369179305701</v>
+        <v>268.3369179305697</v>
       </c>
       <c r="R24" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408891</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T24" t="n">
-        <v>8.473118044880216</v>
+        <v>8.473118044880202</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630069</v>
+        <v>0.1382989887630067</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504546</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719498</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99919542270037</v>
+        <v>52.99919542270028</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5993781143714</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7550536584372</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851396</v>
+        <v>262.0159739851392</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2591072169353</v>
+        <v>276.2591072169349</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167822</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955699</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P25" t="n">
-        <v>213.150331288877</v>
+        <v>213.1503312888767</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427125</v>
+        <v>147.5742409427123</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892258</v>
+        <v>79.24244877892244</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876558</v>
+        <v>30.71325804876553</v>
       </c>
       <c r="T25" t="n">
-        <v>7.530115431883059</v>
+        <v>7.530115431883047</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09612913317297536</v>
+        <v>0.0961291331729752</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.5108386286561</v>
+        <v>321.5108386286556</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522901</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L11" t="n">
-        <v>384.242824008138</v>
+        <v>479.8750080183209</v>
       </c>
       <c r="M11" t="n">
-        <v>909.0470416195368</v>
+        <v>909.0470416195357</v>
       </c>
       <c r="N11" t="n">
-        <v>908.9765776315415</v>
+        <v>471.6296532195562</v>
       </c>
       <c r="O11" t="n">
-        <v>470.9619876977336</v>
+        <v>812.6767280995407</v>
       </c>
       <c r="P11" t="n">
-        <v>655.5458532625171</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2858573857372</v>
+        <v>414.2858573857366</v>
       </c>
       <c r="R11" t="n">
-        <v>96.92938883425492</v>
+        <v>96.92938883425452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>197.8599764700042</v>
+        <v>71.76894112959505</v>
       </c>
       <c r="K12" t="n">
-        <v>244.9621578787307</v>
+        <v>466.0740559907273</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8783828009695</v>
+        <v>317.8783828009687</v>
       </c>
       <c r="M12" t="n">
-        <v>390.501471467242</v>
+        <v>390.5014714672412</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271696</v>
+        <v>415.3910702271687</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5574384506778</v>
+        <v>357.5574384506769</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365893</v>
+        <v>267.4430174365887</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.4324315803977</v>
+        <v>243.4115688088149</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769863</v>
+        <v>31.24019799769843</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4855618325544</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454557</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787759</v>
+        <v>315.8429841787755</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960108</v>
+        <v>313.8224554960104</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096096</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537705</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101811</v>
+        <v>61.41219769101788</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>161.9650023807669</v>
+        <v>161.9650023807747</v>
       </c>
       <c r="K14" t="n">
-        <v>603.8258527522901</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585885</v>
+        <v>801.9040385585874</v>
       </c>
       <c r="M14" t="n">
-        <v>909.0470416195368</v>
+        <v>909.0470416195357</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315415</v>
+        <v>908.9765776315404</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995418</v>
+        <v>812.6767280995407</v>
       </c>
       <c r="P14" t="n">
-        <v>333.7471450910345</v>
+        <v>333.7471450910336</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9708667258326</v>
+        <v>201.9708667258319</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21296896127248</v>
+        <v>31.21296896127208</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>197.8599764700042</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K15" t="n">
-        <v>244.9621578787307</v>
+        <v>455.0394456145848</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009695</v>
+        <v>317.8783828009687</v>
       </c>
       <c r="M15" t="n">
-        <v>390.501471467242</v>
+        <v>390.5014714672412</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271696</v>
+        <v>415.3910702271687</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506778</v>
+        <v>357.5574384506769</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365893</v>
+        <v>267.4430174365887</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.4324315803977</v>
+        <v>128.3551438445482</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.2401979976988</v>
+        <v>31.24019799769843</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4855618325545</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454558</v>
+        <v>289.6059992454553</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787761</v>
+        <v>315.8429841787755</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960109</v>
+        <v>313.8224554961317</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096141</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537705</v>
+        <v>210.4288905537702</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101828</v>
+        <v>61.41219769101788</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4142234565823</v>
+        <v>152.4142234565818</v>
       </c>
       <c r="K17" t="n">
-        <v>603.8258527522901</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585885</v>
+        <v>801.9040385585874</v>
       </c>
       <c r="M17" t="n">
-        <v>909.0470416195368</v>
+        <v>909.0470416195357</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9765776315415</v>
+        <v>908.9765776315404</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995418</v>
+        <v>812.6767280995407</v>
       </c>
       <c r="P17" t="n">
-        <v>333.7471450910345</v>
+        <v>333.7471450910336</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.5216456500167</v>
+        <v>211.5216456500249</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21296896127248</v>
+        <v>31.21296896127208</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>197.8599764700042</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K18" t="n">
-        <v>244.9621578787307</v>
+        <v>201.6088189781487</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8783828009695</v>
+        <v>317.8783828009687</v>
       </c>
       <c r="M18" t="n">
-        <v>390.501471467242</v>
+        <v>390.5014714672412</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271696</v>
+        <v>415.3910702271687</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506778</v>
+        <v>357.5574384506769</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4430174365893</v>
+        <v>310.7963563371758</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.4324315803977</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.2401979976988</v>
+        <v>31.2401979976986</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325545</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454558</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787761</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960109</v>
+        <v>313.8224554960106</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096098</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537707</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101828</v>
+        <v>61.41219769101805</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3117067804486</v>
+        <v>321.5108386286556</v>
       </c>
       <c r="K20" t="n">
-        <v>279.6804401811253</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585885</v>
+        <v>801.9040385585874</v>
       </c>
       <c r="M20" t="n">
-        <v>909.0470416195368</v>
+        <v>459.5335081267032</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9765776315415</v>
+        <v>908.9765776315404</v>
       </c>
       <c r="O20" t="n">
-        <v>812.6767280995418</v>
+        <v>812.6767280995407</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625171</v>
+        <v>623.7148423359857</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9708667258326</v>
+        <v>201.9708667258319</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21296896127248</v>
+        <v>31.21296896127208</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.8599764700042</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K21" t="n">
-        <v>214.6026263694327</v>
+        <v>244.9621578787358</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8783828009695</v>
+        <v>317.8783828009687</v>
       </c>
       <c r="M21" t="n">
-        <v>390.501471467242</v>
+        <v>390.5014714672412</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271696</v>
+        <v>415.3910702271687</v>
       </c>
       <c r="O21" t="n">
-        <v>357.5574384506778</v>
+        <v>357.5574384506769</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365893</v>
+        <v>267.4430174365887</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803977</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R21" t="n">
-        <v>30.35953150929858</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.2401979976988</v>
+        <v>31.2401979976986</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4855618325545</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454558</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787761</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960109</v>
+        <v>313.8224554960106</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096098</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537707</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101828</v>
+        <v>61.41219769101805</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.4142234565823</v>
+        <v>152.4142234565818</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8258527522901</v>
+        <v>335.3452211435953</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585885</v>
+        <v>801.9040385585874</v>
       </c>
       <c r="M23" t="n">
-        <v>909.0470416195368</v>
+        <v>909.0470416195357</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9765776315415</v>
+        <v>908.9765776315404</v>
       </c>
       <c r="O23" t="n">
-        <v>812.6767280995418</v>
+        <v>812.6767280995407</v>
       </c>
       <c r="P23" t="n">
-        <v>333.7471450910345</v>
+        <v>333.7471450910336</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.5216456500176</v>
+        <v>414.2858573857366</v>
       </c>
       <c r="R23" t="n">
-        <v>31.21296896127248</v>
+        <v>96.92938883425452</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8599764700042</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K24" t="n">
-        <v>214.6026263694327</v>
+        <v>244.9621578787358</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8783828009695</v>
+        <v>317.8783828009687</v>
       </c>
       <c r="M24" t="n">
-        <v>390.501471467242</v>
+        <v>390.5014714672412</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271696</v>
+        <v>415.3910702271687</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506778</v>
+        <v>357.5574384506769</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4430174365893</v>
+        <v>267.4430174365887</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803977</v>
+        <v>338.4324315803973</v>
       </c>
       <c r="R24" t="n">
-        <v>30.35953150929858</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.2401979976988</v>
+        <v>31.2401979976986</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4855618325545</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454558</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787761</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960109</v>
+        <v>313.8224554960106</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096098</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537707</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101828</v>
+        <v>61.41219769101805</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37312,13 +37312,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127618934</v>
+        <v>92.49863127620014</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074427</v>
+        <v>252.9678742074535</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333213</v>
+        <v>366.677586833332</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566069</v>
+        <v>394.5535940566178</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306631</v>
+        <v>391.777160830674</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857629</v>
+        <v>349.2733448857737</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082335</v>
+        <v>281.8772858082444</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010167</v>
+        <v>125.3144532010276</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>826.9689307863301</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37783,7 +37783,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
